--- a/mod3/Random Animal Data.xlsx
+++ b/mod3/Random Animal Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Documents\7. Semester\DAMI\notebooks\mod3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Documents\GitHub\dami\mod3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{954B164C-6278-46C3-A1D3-B43787E76FCD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{954B164C-6278-46C3-A1D3-B43787E76FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Birthyear</t>
-  </si>
   <si>
     <t>Country</t>
   </si>
@@ -72,12 +66,6 @@
     <t>Rabbit</t>
   </si>
   <si>
-    <t>Weight from</t>
-  </si>
-  <si>
-    <t>Weight to</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -97,6 +85,18 @@
   </si>
   <si>
     <t>Algeria</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Weight(kg)</t>
+  </si>
+  <si>
+    <t>Weight(kg) from</t>
+  </si>
+  <si>
+    <t>Weight(kg) to</t>
   </si>
 </sst>
 </file>
@@ -140,17 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -467,41 +469,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D94BA0-6D9C-4DD1-A6F0-EFB3706A8CC1}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" style="8"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1974</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="A2" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>19477</v>
+      </c>
+      <c r="B2" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D2,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D2,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">VLOOKUP(D2,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -511,63 +514,63 @@
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
         <v>Eagle</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1964</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26932</v>
+      </c>
+      <c r="B3" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D3,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D3,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="str">
         <f ca="1">VLOOKUP(D3,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Mexico</v>
       </c>
       <c r="D3" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Eagle</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1976</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22764</v>
+      </c>
+      <c r="B4" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D4,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D4,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="C4" s="2" t="str">
         <f ca="1">VLOOKUP(D4,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Iceland</v>
       </c>
       <c r="D4" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>Horse</v>
+      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1953</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36001</v>
+      </c>
+      <c r="B5" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D5,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D5,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>675</v>
       </c>
       <c r="C5" s="2" t="str">
         <f ca="1">VLOOKUP(D5,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -575,244 +578,244 @@
       </c>
       <c r="D5" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>Horse</v>
+      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1964</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39673</v>
+      </c>
+      <c r="B6" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D6,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D6,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>16</v>
+        <v>357</v>
       </c>
       <c r="C6" s="2" t="str">
         <f ca="1">VLOOKUP(D6,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Morocco</v>
       </c>
       <c r="D6" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1953</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="A7" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20886</v>
+      </c>
+      <c r="B7" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D7,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D7,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>490</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="str">
         <f ca="1">VLOOKUP(D7,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Greenland</v>
       </c>
       <c r="D7" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1987</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25894</v>
+      </c>
+      <c r="B8" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D8,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D8,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="str">
         <f ca="1">VLOOKUP(D8,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Netherlands</v>
       </c>
       <c r="D8" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1999</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="A9" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18800</v>
+      </c>
+      <c r="B9" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D9,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D9,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2" t="str">
         <f ca="1">VLOOKUP(D9,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Netherlands</v>
       </c>
       <c r="D9" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1962</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34920</v>
+      </c>
+      <c r="B10" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D10,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D10,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="str">
         <f ca="1">VLOOKUP(D10,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Mexico</v>
       </c>
       <c r="D10" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2002</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34586</v>
+      </c>
+      <c r="B11" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D11,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D11,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>704</v>
       </c>
       <c r="C11" s="2" t="str">
         <f ca="1">VLOOKUP(D11,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Iceland</v>
       </c>
       <c r="D11" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1958</v>
-      </c>
-      <c r="B12" s="6">
+      <c r="A12" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18835</v>
+      </c>
+      <c r="B12" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D12,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D12,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>595</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="str">
         <f ca="1">VLOOKUP(D12,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Poland</v>
       </c>
       <c r="D12" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2009</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="A13" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20736</v>
+      </c>
+      <c r="B13" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D13,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D13,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="C13" s="2" t="str">
         <f ca="1">VLOOKUP(D13,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>Tunisia</v>
       </c>
       <c r="D13" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1982</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="A14" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>23855</v>
+      </c>
+      <c r="B14" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D14,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D14,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>456</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2" t="str">
         <f ca="1">VLOOKUP(D14,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Great Britain</v>
       </c>
       <c r="D14" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1983</v>
-      </c>
-      <c r="B15" s="6">
+      <c r="A15" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35814</v>
+      </c>
+      <c r="B15" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D15,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D15,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="str">
         <f ca="1">VLOOKUP(D15,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Great Britain</v>
       </c>
       <c r="D15" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1953</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36469</v>
+      </c>
+      <c r="B16" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D16,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D16,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>341</v>
+        <v>603</v>
       </c>
       <c r="C16" s="2" t="str">
         <f ca="1">VLOOKUP(D16,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Germany</v>
       </c>
       <c r="D16" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2004</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21581</v>
+      </c>
+      <c r="B17" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D17,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D17,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2" t="str">
         <f ca="1">VLOOKUP(D17,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Poland</v>
       </c>
       <c r="D17" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1997</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>19317</v>
+      </c>
+      <c r="B18" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D18,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D18,Data!$B$2:$D$6,3,FALSE))</f>
         <v>1</v>
       </c>
       <c r="C18" s="2" t="str">
         <f ca="1">VLOOKUP(D18,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Germany</v>
       </c>
       <c r="D18" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -820,11 +823,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2003</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29878</v>
+      </c>
+      <c r="B19" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D19,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D19,Data!$B$2:$D$6,3,FALSE))</f>
         <v>18</v>
       </c>
@@ -838,269 +841,269 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1998</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>38579</v>
+      </c>
+      <c r="B20" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D20,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D20,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="C20" s="2" t="str">
         <f ca="1">VLOOKUP(D20,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Morocco</v>
       </c>
       <c r="D20" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1951</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20490</v>
+      </c>
+      <c r="B21" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D21,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D21,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="str">
         <f ca="1">VLOOKUP(D21,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Mexico</v>
       </c>
       <c r="D21" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1953</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32076</v>
+      </c>
+      <c r="B22" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D22,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D22,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="C22" s="2" t="str">
         <f ca="1">VLOOKUP(D22,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Tunisia</v>
       </c>
       <c r="D22" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1950</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24151</v>
+      </c>
+      <c r="B23" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D23,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D23,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>508</v>
       </c>
       <c r="C23" s="2" t="str">
         <f ca="1">VLOOKUP(D23,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Iceland</v>
       </c>
       <c r="D23" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1991</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26754</v>
+      </c>
+      <c r="B24" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D24,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D24,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>3</v>
+        <v>448</v>
       </c>
       <c r="C24" s="2" t="str">
         <f ca="1">VLOOKUP(D24,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Algeria</v>
       </c>
       <c r="D24" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1967</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31290</v>
+      </c>
+      <c r="B25" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D25,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D25,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>471</v>
       </c>
       <c r="C25" s="2" t="str">
         <f ca="1">VLOOKUP(D25,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Tunisia</v>
       </c>
       <c r="D25" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1950</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31200</v>
+      </c>
+      <c r="B26" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D26,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D26,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="str">
         <f ca="1">VLOOKUP(D26,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>USA</v>
       </c>
       <c r="D26" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1990</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27246</v>
+      </c>
+      <c r="B27" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D27,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D27,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>435</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2" t="str">
         <f ca="1">VLOOKUP(D27,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Canada</v>
       </c>
       <c r="D27" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2001</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34121</v>
+      </c>
+      <c r="B28" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D28,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D28,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>487</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2" t="str">
         <f ca="1">VLOOKUP(D28,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Greenland</v>
       </c>
       <c r="D28" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1954</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>40462</v>
+      </c>
+      <c r="B29" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D29,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D29,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2" t="str">
         <f ca="1">VLOOKUP(D29,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Canada</v>
       </c>
       <c r="D29" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1985</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37948</v>
+      </c>
+      <c r="B30" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D30,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D30,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>18</v>
+        <v>758</v>
       </c>
       <c r="C30" s="2" t="str">
         <f ca="1">VLOOKUP(D30,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Great Britain</v>
       </c>
       <c r="D30" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2005</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="A31" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18807</v>
+      </c>
+      <c r="B31" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D31,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D31,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="str">
         <f ca="1">VLOOKUP(D31,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Canada</v>
       </c>
       <c r="D31" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1973</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29266</v>
+      </c>
+      <c r="B32" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D32,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D32,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="C32" s="2" t="str">
         <f ca="1">VLOOKUP(D32,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Morocco</v>
       </c>
       <c r="D32" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1970</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="A33" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27843</v>
+      </c>
+      <c r="B33" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D33,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D33,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>375</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="str">
         <f ca="1">VLOOKUP(D33,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Poland</v>
       </c>
       <c r="D33" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2003</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22590</v>
+      </c>
+      <c r="B34" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D34,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D34,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>541</v>
+        <v>723</v>
       </c>
       <c r="C34" s="2" t="str">
         <f ca="1">VLOOKUP(D34,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Poland</v>
       </c>
       <c r="D34" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1108,413 +1111,413 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1950</v>
-      </c>
-      <c r="B35" s="6">
+      <c r="A35" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22323</v>
+      </c>
+      <c r="B35" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D35,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D35,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>15</v>
+        <v>437</v>
       </c>
       <c r="C35" s="2" t="str">
         <f ca="1">VLOOKUP(D35,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Iceland</v>
       </c>
       <c r="D35" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2005</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32161</v>
+      </c>
+      <c r="B36" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D36,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D36,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="str">
         <f ca="1">VLOOKUP(D36,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Great Britain</v>
       </c>
       <c r="D36" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1976</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A37" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27413</v>
+      </c>
+      <c r="B37" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D37,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D37,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>439</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="str">
         <f ca="1">VLOOKUP(D37,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>USA</v>
       </c>
       <c r="D37" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1959</v>
-      </c>
-      <c r="B38" s="6">
+      <c r="A38" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20372</v>
+      </c>
+      <c r="B38" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D38,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D38,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C38" s="2" t="str">
         <f ca="1">VLOOKUP(D38,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Egypt</v>
       </c>
       <c r="D38" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1976</v>
-      </c>
-      <c r="B39" s="6">
+      <c r="A39" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20847</v>
+      </c>
+      <c r="B39" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D39,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D39,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="str">
         <f ca="1">VLOOKUP(D39,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Germany</v>
       </c>
       <c r="D39" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1999</v>
-      </c>
-      <c r="B40" s="6">
+      <c r="A40" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24621</v>
+      </c>
+      <c r="B40" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D40,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D40,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C40" s="2" t="str">
         <f ca="1">VLOOKUP(D40,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Germany</v>
       </c>
       <c r="D40" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2003</v>
-      </c>
-      <c r="B41" s="6">
+      <c r="A41" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36796</v>
+      </c>
+      <c r="B41" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D41,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D41,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>388</v>
       </c>
       <c r="C41" s="2" t="str">
         <f ca="1">VLOOKUP(D41,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Morocco</v>
       </c>
       <c r="D41" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1990</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22965</v>
+      </c>
+      <c r="B42" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D42,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D42,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>352</v>
+        <v>601</v>
       </c>
       <c r="C42" s="2" t="str">
         <f ca="1">VLOOKUP(D42,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Iceland</v>
       </c>
       <c r="D42" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1956</v>
-      </c>
-      <c r="B43" s="6">
+      <c r="A43" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>40013</v>
+      </c>
+      <c r="B43" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D43,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D43,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C43" s="2" t="str">
         <f ca="1">VLOOKUP(D43,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Poland</v>
       </c>
       <c r="D43" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1967</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34657</v>
+      </c>
+      <c r="B44" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D44,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D44,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="C44" s="2" t="str">
         <f ca="1">VLOOKUP(D44,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Iceland</v>
       </c>
       <c r="D44" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1973</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="A45" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22812</v>
+      </c>
+      <c r="B45" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D45,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D45,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>20</v>
+        <v>423</v>
       </c>
       <c r="C45" s="2" t="str">
         <f ca="1">VLOOKUP(D45,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Great Britain</v>
       </c>
       <c r="D45" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1972</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>19532</v>
+      </c>
+      <c r="B46" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D46,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D46,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>3</v>
+        <v>977</v>
       </c>
       <c r="C46" s="2" t="str">
         <f ca="1">VLOOKUP(D46,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Germany</v>
       </c>
       <c r="D46" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1985</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="A47" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18510</v>
+      </c>
+      <c r="B47" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D47,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D47,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>785</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2" t="str">
         <f ca="1">VLOOKUP(D47,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Algeria</v>
       </c>
       <c r="D47" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1974</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="A48" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24235</v>
+      </c>
+      <c r="B48" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D48,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D48,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>16</v>
+        <v>465</v>
       </c>
       <c r="C48" s="2" t="str">
         <f ca="1">VLOOKUP(D48,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Egypt</v>
       </c>
       <c r="D48" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1970</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="A49" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25276</v>
+      </c>
+      <c r="B49" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D49,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D49,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="str">
         <f ca="1">VLOOKUP(D49,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>USA</v>
       </c>
       <c r="D49" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2006</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="A50" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28855</v>
+      </c>
+      <c r="B50" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D50,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D50,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>12</v>
+        <v>486</v>
       </c>
       <c r="C50" s="2" t="str">
         <f ca="1">VLOOKUP(D50,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Morocco</v>
       </c>
       <c r="D50" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1979</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="A51" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22227</v>
+      </c>
+      <c r="B51" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D51,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D51,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>726</v>
+        <v>318</v>
       </c>
       <c r="C51" s="2" t="str">
         <f ca="1">VLOOKUP(D51,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Algeria</v>
       </c>
       <c r="D51" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1953</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="A52" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34067</v>
+      </c>
+      <c r="B52" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D52,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D52,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="str">
         <f ca="1">VLOOKUP(D52,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Germany</v>
       </c>
       <c r="D52" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2009</v>
-      </c>
-      <c r="B53" s="6">
+      <c r="A53" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37219</v>
+      </c>
+      <c r="B53" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D53,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D53,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2" t="str">
         <f ca="1">VLOOKUP(D53,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Greenland</v>
       </c>
       <c r="D53" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1978</v>
-      </c>
-      <c r="B54" s="6">
+      <c r="A54" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34759</v>
+      </c>
+      <c r="B54" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D54,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D54,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>884</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2" t="str">
         <f ca="1">VLOOKUP(D54,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Tunisia</v>
       </c>
       <c r="D54" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1988</v>
-      </c>
-      <c r="B55" s="6">
+      <c r="A55" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24386</v>
+      </c>
+      <c r="B55" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D55,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D55,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="C55" s="2" t="str">
         <f ca="1">VLOOKUP(D55,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Netherlands</v>
       </c>
       <c r="D55" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1962</v>
-      </c>
-      <c r="B56" s="6">
+      <c r="A56" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35148</v>
+      </c>
+      <c r="B56" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D56,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D56,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>335</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="str">
         <f ca="1">VLOOKUP(D56,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Germany</v>
       </c>
       <c r="D56" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1995</v>
-      </c>
-      <c r="B57" s="6">
+      <c r="A57" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28226</v>
+      </c>
+      <c r="B57" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D57,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D57,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57" s="2" t="str">
         <f ca="1">VLOOKUP(D57,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Germany</v>
       </c>
       <c r="D57" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1522,13 +1525,13 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1983</v>
-      </c>
-      <c r="B58" s="6">
+      <c r="A58" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>19698</v>
+      </c>
+      <c r="B58" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D58,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D58,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>881</v>
+        <v>949</v>
       </c>
       <c r="C58" s="2" t="str">
         <f ca="1">VLOOKUP(D58,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1540,17 +1543,17 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1990</v>
-      </c>
-      <c r="B59" s="6">
+      <c r="A59" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27191</v>
+      </c>
+      <c r="B59" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D59,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D59,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" s="2" t="str">
         <f ca="1">VLOOKUP(D59,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Poland</v>
       </c>
       <c r="D59" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1558,13 +1561,13 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1959</v>
-      </c>
-      <c r="B60" s="6">
+      <c r="A60" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27667</v>
+      </c>
+      <c r="B60" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D60,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D60,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C60" s="2" t="str">
         <f ca="1">VLOOKUP(D60,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1576,17 +1579,17 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1973</v>
-      </c>
-      <c r="B61" s="6">
+      <c r="A61" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36337</v>
+      </c>
+      <c r="B61" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D61,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D61,Data!$B$2:$D$6,3,FALSE))</f>
         <v>7</v>
       </c>
       <c r="C61" s="2" t="str">
         <f ca="1">VLOOKUP(D61,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Canada</v>
       </c>
       <c r="D61" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1594,31 +1597,31 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1971</v>
-      </c>
-      <c r="B62" s="6">
+      <c r="A62" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29043</v>
+      </c>
+      <c r="B62" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D62,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D62,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="C62" s="2" t="str">
         <f ca="1">VLOOKUP(D62,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Morocco</v>
       </c>
       <c r="D62" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1992</v>
-      </c>
-      <c r="B63" s="6">
+      <c r="A63" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22242</v>
+      </c>
+      <c r="B63" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D63,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D63,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="2" t="str">
         <f ca="1">VLOOKUP(D63,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1630,85 +1633,85 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1964</v>
-      </c>
-      <c r="B64" s="6">
+      <c r="A64" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18538</v>
+      </c>
+      <c r="B64" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D64,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D64,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>378</v>
       </c>
       <c r="C64" s="2" t="str">
         <f ca="1">VLOOKUP(D64,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Egypt</v>
       </c>
       <c r="D64" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1986</v>
-      </c>
-      <c r="B65" s="6">
+      <c r="A65" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35351</v>
+      </c>
+      <c r="B65" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D65,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D65,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>372</v>
+        <v>561</v>
       </c>
       <c r="C65" s="2" t="str">
         <f ca="1">VLOOKUP(D65,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Iceland</v>
       </c>
       <c r="D65" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1968</v>
-      </c>
-      <c r="B66" s="6">
+      <c r="A66" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24905</v>
+      </c>
+      <c r="B66" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D66,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D66,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>422</v>
+        <v>13</v>
       </c>
       <c r="C66" s="2" t="str">
         <f ca="1">VLOOKUP(D66,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Poland</v>
       </c>
       <c r="D66" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2004</v>
-      </c>
-      <c r="B67" s="6">
+      <c r="A67" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>23583</v>
+      </c>
+      <c r="B67" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D67,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D67,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>17</v>
+        <v>782</v>
       </c>
       <c r="C67" s="2" t="str">
         <f ca="1">VLOOKUP(D67,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Germany</v>
       </c>
       <c r="D67" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1990</v>
-      </c>
-      <c r="B68" s="6">
+      <c r="A68" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22752</v>
+      </c>
+      <c r="B68" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D68,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D68,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="C68" s="2" t="str">
         <f ca="1">VLOOKUP(D68,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1716,71 +1719,71 @@
       </c>
       <c r="D68" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1973</v>
-      </c>
-      <c r="B69" s="6">
+      <c r="A69" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39220</v>
+      </c>
+      <c r="B69" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D69,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D69,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C69" s="2" t="str">
         <f ca="1">VLOOKUP(D69,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Poland</v>
       </c>
       <c r="D69" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1997</v>
-      </c>
-      <c r="B70" s="6">
+      <c r="A70" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35969</v>
+      </c>
+      <c r="B70" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D70,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D70,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>487</v>
+        <v>17</v>
       </c>
       <c r="C70" s="2" t="str">
         <f ca="1">VLOOKUP(D70,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Poland</v>
       </c>
       <c r="D70" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2008</v>
-      </c>
-      <c r="B71" s="6">
+      <c r="A71" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26079</v>
+      </c>
+      <c r="B71" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D71,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D71,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>483</v>
+        <v>9</v>
       </c>
       <c r="C71" s="2" t="str">
         <f ca="1">VLOOKUP(D71,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>USA</v>
       </c>
       <c r="D71" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1982</v>
-      </c>
-      <c r="B72" s="6">
+      <c r="A72" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27391</v>
+      </c>
+      <c r="B72" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D72,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D72,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2" t="str">
         <f ca="1">VLOOKUP(D72,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1792,31 +1795,31 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1991</v>
-      </c>
-      <c r="B73" s="6">
+      <c r="A73" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24210</v>
+      </c>
+      <c r="B73" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D73,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D73,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="C73" s="2" t="str">
         <f ca="1">VLOOKUP(D73,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Greenland</v>
       </c>
       <c r="D73" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1964</v>
-      </c>
-      <c r="B74" s="6">
+      <c r="A74" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31316</v>
+      </c>
+      <c r="B74" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D74,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D74,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>14</v>
+        <v>496</v>
       </c>
       <c r="C74" s="2" t="str">
         <f ca="1">VLOOKUP(D74,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1824,33 +1827,33 @@
       </c>
       <c r="D74" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1988</v>
-      </c>
-      <c r="B75" s="6">
+      <c r="A75" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37782</v>
+      </c>
+      <c r="B75" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D75,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D75,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>347</v>
+        <v>8</v>
       </c>
       <c r="C75" s="2" t="str">
         <f ca="1">VLOOKUP(D75,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Canada</v>
       </c>
       <c r="D75" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1995</v>
-      </c>
-      <c r="B76" s="6">
+      <c r="A76" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35290</v>
+      </c>
+      <c r="B76" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D76,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D76,Data!$B$2:$D$6,3,FALSE))</f>
         <v>8</v>
       </c>
@@ -1864,31 +1867,31 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1996</v>
-      </c>
-      <c r="B77" s="6">
+      <c r="A77" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20345</v>
+      </c>
+      <c r="B77" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D77,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D77,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>408</v>
+        <v>784</v>
       </c>
       <c r="C77" s="2" t="str">
         <f ca="1">VLOOKUP(D77,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Iceland</v>
       </c>
       <c r="D77" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1977</v>
-      </c>
-      <c r="B78" s="6">
+      <c r="A78" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29804</v>
+      </c>
+      <c r="B78" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D78,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D78,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C78" s="2" t="str">
         <f ca="1">VLOOKUP(D78,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1900,31 +1903,31 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1998</v>
-      </c>
-      <c r="B79" s="6">
+      <c r="A79" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>23336</v>
+      </c>
+      <c r="B79" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D79,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D79,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>999</v>
+        <v>475</v>
       </c>
       <c r="C79" s="2" t="str">
         <f ca="1">VLOOKUP(D79,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Morocco</v>
       </c>
       <c r="D79" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1997</v>
-      </c>
-      <c r="B80" s="6">
+      <c r="A80" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>33617</v>
+      </c>
+      <c r="B80" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D80,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D80,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2" t="str">
         <f ca="1">VLOOKUP(D80,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1936,35 +1939,35 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1992</v>
-      </c>
-      <c r="B81" s="6">
+      <c r="A81" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31096</v>
+      </c>
+      <c r="B81" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D81,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D81,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C81" s="2" t="str">
         <f ca="1">VLOOKUP(D81,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Germany</v>
       </c>
       <c r="D81" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1997</v>
-      </c>
-      <c r="B82" s="6">
+      <c r="A82" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36026</v>
+      </c>
+      <c r="B82" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D82,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D82,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="str">
         <f ca="1">VLOOKUP(D82,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Greenland</v>
       </c>
       <c r="D82" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1972,35 +1975,35 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1997</v>
-      </c>
-      <c r="B83" s="6">
+      <c r="A83" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29113</v>
+      </c>
+      <c r="B83" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D83,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D83,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C83" s="2" t="str">
         <f ca="1">VLOOKUP(D83,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="D83" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1957</v>
-      </c>
-      <c r="B84" s="6">
+      <c r="A84" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20236</v>
+      </c>
+      <c r="B84" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D84,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D84,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>319</v>
+        <v>397</v>
       </c>
       <c r="C84" s="2" t="str">
         <f ca="1">VLOOKUP(D84,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Algeria</v>
       </c>
       <c r="D84" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -2008,53 +2011,53 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1959</v>
-      </c>
-      <c r="B85" s="6">
+      <c r="A85" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29626</v>
+      </c>
+      <c r="B85" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D85,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D85,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>407</v>
+        <v>4</v>
       </c>
       <c r="C85" s="2" t="str">
         <f ca="1">VLOOKUP(D85,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Poland</v>
       </c>
       <c r="D85" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1967</v>
-      </c>
-      <c r="B86" s="6">
+      <c r="A86" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29625</v>
+      </c>
+      <c r="B86" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D86,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D86,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C86" s="2" t="str">
         <f ca="1">VLOOKUP(D86,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Great Britain</v>
       </c>
       <c r="D86" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1955</v>
-      </c>
-      <c r="B87" s="6">
+      <c r="A87" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32799</v>
+      </c>
+      <c r="B87" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D87,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D87,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2" t="str">
         <f ca="1">VLOOKUP(D87,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Greenland</v>
       </c>
       <c r="D87" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -2062,49 +2065,49 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1972</v>
-      </c>
-      <c r="B88" s="6">
+      <c r="A88" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24138</v>
+      </c>
+      <c r="B88" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D88,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D88,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>741</v>
+        <v>13</v>
       </c>
       <c r="C88" s="2" t="str">
         <f ca="1">VLOOKUP(D88,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Poland</v>
       </c>
       <c r="D88" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1997</v>
-      </c>
-      <c r="B89" s="6">
+      <c r="A89" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36500</v>
+      </c>
+      <c r="B89" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D89,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D89,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>489</v>
       </c>
       <c r="C89" s="2" t="str">
         <f ca="1">VLOOKUP(D89,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Egypt</v>
       </c>
       <c r="D89" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1994</v>
-      </c>
-      <c r="B90" s="6">
+      <c r="A90" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39009</v>
+      </c>
+      <c r="B90" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D90,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D90,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>12</v>
+        <v>526</v>
       </c>
       <c r="C90" s="2" t="str">
         <f ca="1">VLOOKUP(D90,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2112,89 +2115,89 @@
       </c>
       <c r="D90" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1960</v>
-      </c>
-      <c r="B91" s="6">
+      <c r="A91" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22195</v>
+      </c>
+      <c r="B91" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D91,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D91,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>313</v>
+        <v>763</v>
       </c>
       <c r="C91" s="2" t="str">
         <f ca="1">VLOOKUP(D91,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Iceland</v>
       </c>
       <c r="D91" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1984</v>
-      </c>
-      <c r="B92" s="6">
+      <c r="A92" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37651</v>
+      </c>
+      <c r="B92" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D92,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D92,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="str">
         <f ca="1">VLOOKUP(D92,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Germany</v>
       </c>
       <c r="D92" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1984</v>
-      </c>
-      <c r="B93" s="6">
+      <c r="A93" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25503</v>
+      </c>
+      <c r="B93" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D93,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D93,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>447</v>
+        <v>16</v>
       </c>
       <c r="C93" s="2" t="str">
         <f ca="1">VLOOKUP(D93,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Great Britain</v>
       </c>
       <c r="D93" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1961</v>
-      </c>
-      <c r="B94" s="6">
+      <c r="A94" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21531</v>
+      </c>
+      <c r="B94" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D94,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D94,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>321</v>
+        <v>2</v>
       </c>
       <c r="C94" s="2" t="str">
         <f ca="1">VLOOKUP(D94,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Iceland</v>
       </c>
       <c r="D94" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1986</v>
-      </c>
-      <c r="B95" s="6">
+      <c r="A95" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37784</v>
+      </c>
+      <c r="B95" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D95,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D95,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C95" s="2" t="str">
         <f ca="1">VLOOKUP(D95,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2202,53 +2205,53 @@
       </c>
       <c r="D95" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1981</v>
-      </c>
-      <c r="B96" s="6">
+      <c r="A96" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37090</v>
+      </c>
+      <c r="B96" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D96,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D96,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>412</v>
       </c>
       <c r="C96" s="2" t="str">
         <f ca="1">VLOOKUP(D96,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Germany</v>
       </c>
       <c r="D96" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1977</v>
-      </c>
-      <c r="B97" s="6">
+      <c r="A97" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>38521</v>
+      </c>
+      <c r="B97" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D97,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D97,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>879</v>
+        <v>445</v>
       </c>
       <c r="C97" s="2" t="str">
         <f ca="1">VLOOKUP(D97,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Egypt</v>
       </c>
       <c r="D97" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1978</v>
-      </c>
-      <c r="B98" s="6">
+      <c r="A98" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22680</v>
+      </c>
+      <c r="B98" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D98,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D98,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C98" s="2" t="str">
         <f ca="1">VLOOKUP(D98,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2256,79 +2259,79 @@
       </c>
       <c r="D98" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1984</v>
-      </c>
-      <c r="B99" s="6">
+      <c r="A99" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39288</v>
+      </c>
+      <c r="B99" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D99,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D99,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C99" s="2" t="str">
         <f ca="1">VLOOKUP(D99,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Netherlands</v>
       </c>
       <c r="D99" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2001</v>
-      </c>
-      <c r="B100" s="6">
+      <c r="A100" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25871</v>
+      </c>
+      <c r="B100" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D100,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D100,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>423</v>
+        <v>10</v>
       </c>
       <c r="C100" s="2" t="str">
         <f ca="1">VLOOKUP(D100,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Germany</v>
       </c>
       <c r="D100" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>1962</v>
-      </c>
-      <c r="B101" s="6">
+      <c r="A101" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31490</v>
+      </c>
+      <c r="B101" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D101,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D101,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>3</v>
+        <v>962</v>
       </c>
       <c r="C101" s="2" t="str">
         <f ca="1">VLOOKUP(D101,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Poland</v>
       </c>
       <c r="D101" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>2003</v>
-      </c>
-      <c r="B102" s="6">
+      <c r="A102" s="8">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32917</v>
+      </c>
+      <c r="B102" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D102,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D102,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>463</v>
+        <v>19</v>
       </c>
       <c r="C102" s="2" t="str">
         <f ca="1">VLOOKUP(D102,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Great Britain</v>
       </c>
       <c r="D102" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
   </sheetData>
@@ -2341,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDD2B13-87EF-4487-ABE6-725EFD1DA11D}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,78 +2356,78 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>18264</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>350</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1950</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>350</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2010</v>
+      <c r="A3" s="8">
+        <v>40543</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2432,75 +2435,75 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5">
         <v>300</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>500</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>

--- a/mod3/Random Animal Data.xlsx
+++ b/mod3/Random Animal Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{954B164C-6278-46C3-A1D3-B43787E76FCD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{954B164C-6278-46C3-A1D3-B43787E76FCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -148,11 +148,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -469,19 +469,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D94BA0-6D9C-4DD1-A6F0-EFB3706A8CC1}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -498,17 +498,17 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>19477</v>
+      <c r="A2" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20269</v>
       </c>
       <c r="B2" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D2,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D2,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="str">
         <f ca="1">VLOOKUP(D2,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>USA</v>
       </c>
       <c r="D2" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -520,21 +520,21 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>26932</v>
+      <c r="A3" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39529</v>
       </c>
       <c r="B3" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D3,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D3,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="str">
         <f ca="1">VLOOKUP(D3,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Netherlands</v>
       </c>
       <c r="D3" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -542,21 +542,21 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22764</v>
+      <c r="A4" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>40170</v>
       </c>
       <c r="B4" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D4,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D4,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>487</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="str">
         <f ca="1">VLOOKUP(D4,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Greenland</v>
       </c>
       <c r="D4" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Eagle</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
@@ -564,21 +564,21 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>36001</v>
+      <c r="A5" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32799</v>
       </c>
       <c r="B5" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D5,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D5,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>675</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="str">
         <f ca="1">VLOOKUP(D5,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Canada</v>
       </c>
       <c r="D5" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Eagle</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
@@ -586,308 +586,308 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>39673</v>
+      <c r="A6" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37005</v>
       </c>
       <c r="B6" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D6,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D6,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>357</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="str">
         <f ca="1">VLOOKUP(D6,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Iceland</v>
       </c>
       <c r="D6" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20886</v>
+      <c r="A7" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28671</v>
       </c>
       <c r="B7" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D7,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D7,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>495</v>
       </c>
       <c r="C7" s="2" t="str">
         <f ca="1">VLOOKUP(D7,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>Egypt</v>
       </c>
       <c r="D7" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>25894</v>
+      <c r="A8" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>33078</v>
       </c>
       <c r="B8" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D8,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D8,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>16</v>
+        <v>310</v>
       </c>
       <c r="C8" s="2" t="str">
         <f ca="1">VLOOKUP(D8,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Algeria</v>
       </c>
       <c r="D8" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>18800</v>
+      <c r="A9" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21888</v>
       </c>
       <c r="B9" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D9,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D9,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>16</v>
+        <v>395</v>
       </c>
       <c r="C9" s="2" t="str">
         <f ca="1">VLOOKUP(D9,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Algeria</v>
       </c>
       <c r="D9" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>34920</v>
+      <c r="A10" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24585</v>
       </c>
       <c r="B10" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D10,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D10,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="str">
         <f ca="1">VLOOKUP(D10,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Poland</v>
       </c>
       <c r="D10" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>34586</v>
+      <c r="A11" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39478</v>
       </c>
       <c r="B11" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D11,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D11,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>704</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="str">
         <f ca="1">VLOOKUP(D11,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Poland</v>
       </c>
       <c r="D11" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>18835</v>
+      <c r="A12" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36880</v>
       </c>
       <c r="B12" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D12,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D12,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="str">
         <f ca="1">VLOOKUP(D12,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Germany</v>
       </c>
       <c r="D12" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20736</v>
+      <c r="A13" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26767</v>
       </c>
       <c r="B13" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D13,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D13,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>351</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="str">
         <f ca="1">VLOOKUP(D13,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Greenland</v>
       </c>
       <c r="D13" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>23855</v>
+      <c r="A14" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32434</v>
       </c>
       <c r="B14" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D14,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D14,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>14</v>
+        <v>321</v>
       </c>
       <c r="C14" s="2" t="str">
         <f ca="1">VLOOKUP(D14,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Algeria</v>
       </c>
       <c r="D14" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>35814</v>
+      <c r="A15" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39592</v>
       </c>
       <c r="B15" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D15,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D15,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>20</v>
+        <v>490</v>
       </c>
       <c r="C15" s="2" t="str">
         <f ca="1">VLOOKUP(D15,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Egypt</v>
       </c>
       <c r="D15" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>36469</v>
+      <c r="A16" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36445</v>
       </c>
       <c r="B16" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D16,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D16,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>603</v>
+        <v>2</v>
       </c>
       <c r="C16" s="2" t="str">
         <f ca="1">VLOOKUP(D16,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Poland</v>
       </c>
       <c r="D16" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>21581</v>
+      <c r="A17" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31389</v>
       </c>
       <c r="B17" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D17,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D17,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2" t="str">
         <f ca="1">VLOOKUP(D17,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Mexico</v>
       </c>
       <c r="D17" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>19317</v>
+      <c r="A18" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28139</v>
       </c>
       <c r="B18" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D18,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D18,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>355</v>
       </c>
       <c r="C18" s="2" t="str">
         <f ca="1">VLOOKUP(D18,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Algeria</v>
       </c>
       <c r="D18" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29878</v>
+      <c r="A19" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35666</v>
       </c>
       <c r="B19" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D19,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D19,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2" t="str">
         <f ca="1">VLOOKUP(D19,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Mexico</v>
       </c>
       <c r="D19" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>38579</v>
+      <c r="A20" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28113</v>
       </c>
       <c r="B20" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D20,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D20,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>332</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="str">
         <f ca="1">VLOOKUP(D20,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Great Britain</v>
       </c>
       <c r="D20" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20490</v>
+      <c r="A21" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>38153</v>
       </c>
       <c r="B21" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D21,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D21,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2" t="str">
         <f ca="1">VLOOKUP(D21,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Great Britain</v>
       </c>
       <c r="D21" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>32076</v>
+      <c r="A22" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34371</v>
       </c>
       <c r="B22" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D22,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D22,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>362</v>
+        <v>491</v>
       </c>
       <c r="C22" s="2" t="str">
         <f ca="1">VLOOKUP(D22,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Egypt</v>
       </c>
       <c r="D22" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -895,89 +895,89 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24151</v>
+      <c r="A23" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25516</v>
       </c>
       <c r="B23" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D23,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D23,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="str">
         <f ca="1">VLOOKUP(D23,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Great Britain</v>
       </c>
       <c r="D23" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>26754</v>
+      <c r="A24" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>27403</v>
       </c>
       <c r="B24" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D24,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D24,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>448</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="str">
         <f ca="1">VLOOKUP(D24,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Great Britain</v>
       </c>
       <c r="D24" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>31290</v>
+      <c r="A25" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25913</v>
       </c>
       <c r="B25" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D25,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D25,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2" t="str">
         <f ca="1">VLOOKUP(D25,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Great Britain</v>
       </c>
       <c r="D25" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>31200</v>
+      <c r="A26" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35792</v>
       </c>
       <c r="B26" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D26,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D26,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2" t="str">
         <f ca="1">VLOOKUP(D26,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Egypt</v>
       </c>
       <c r="D26" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>27246</v>
+      <c r="A27" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28518</v>
       </c>
       <c r="B27" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D27,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D27,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2" t="str">
         <f ca="1">VLOOKUP(D27,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>USA</v>
       </c>
       <c r="D27" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -985,121 +985,121 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>34121</v>
+      <c r="A28" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34509</v>
       </c>
       <c r="B28" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D28,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D28,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2" t="str">
         <f ca="1">VLOOKUP(D28,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>Poland</v>
       </c>
       <c r="D28" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>40462</v>
+      <c r="A29" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18673</v>
       </c>
       <c r="B29" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D29,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D29,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="str">
         <f ca="1">VLOOKUP(D29,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Netherlands</v>
       </c>
       <c r="D29" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>37948</v>
+      <c r="A30" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21211</v>
       </c>
       <c r="B30" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D30,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D30,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>758</v>
+        <v>466</v>
       </c>
       <c r="C30" s="2" t="str">
         <f ca="1">VLOOKUP(D30,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Tunisia</v>
       </c>
       <c r="D30" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>18807</v>
+      <c r="A31" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>40227</v>
       </c>
       <c r="B31" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D31,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D31,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>483</v>
       </c>
       <c r="C31" s="2" t="str">
         <f ca="1">VLOOKUP(D31,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Germany</v>
       </c>
       <c r="D31" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29266</v>
+      <c r="A32" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29970</v>
       </c>
       <c r="B32" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D32,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D32,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="C32" s="2" t="str">
         <f ca="1">VLOOKUP(D32,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Greenland</v>
       </c>
       <c r="D32" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>27843</v>
+      <c r="A33" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32723</v>
       </c>
       <c r="B33" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D33,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D33,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>3</v>
+        <v>491</v>
       </c>
       <c r="C33" s="2" t="str">
         <f ca="1">VLOOKUP(D33,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Tunisia</v>
       </c>
       <c r="D33" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22590</v>
+      <c r="A34" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36075</v>
       </c>
       <c r="B34" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D34,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D34,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>723</v>
+        <v>822</v>
       </c>
       <c r="C34" s="2" t="str">
         <f ca="1">VLOOKUP(D34,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1111,17 +1111,17 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22323</v>
+      <c r="A35" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21279</v>
       </c>
       <c r="B35" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D35,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D35,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>437</v>
+        <v>871</v>
       </c>
       <c r="C35" s="2" t="str">
         <f ca="1">VLOOKUP(D35,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Poland</v>
       </c>
       <c r="D35" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1129,17 +1129,17 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>32161</v>
+      <c r="A36" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21607</v>
       </c>
       <c r="B36" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D36,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D36,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C36" s="2" t="str">
         <f ca="1">VLOOKUP(D36,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Poland</v>
       </c>
       <c r="D36" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1147,103 +1147,103 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>27413</v>
+      <c r="A37" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35911</v>
       </c>
       <c r="B37" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D37,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D37,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>430</v>
       </c>
       <c r="C37" s="2" t="str">
         <f ca="1">VLOOKUP(D37,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Morocco</v>
       </c>
       <c r="D37" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20372</v>
+      <c r="A38" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25532</v>
       </c>
       <c r="B38" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D38,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D38,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2" t="str">
         <f ca="1">VLOOKUP(D38,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Iceland</v>
       </c>
       <c r="D38" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20847</v>
+      <c r="A39" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21031</v>
       </c>
       <c r="B39" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D39,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D39,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2" t="str">
         <f ca="1">VLOOKUP(D39,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="D39" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24621</v>
+      <c r="A40" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35381</v>
       </c>
       <c r="B40" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D40,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D40,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>959</v>
       </c>
       <c r="C40" s="2" t="str">
         <f ca="1">VLOOKUP(D40,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Poland</v>
       </c>
       <c r="D40" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>36796</v>
+      <c r="A41" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22915</v>
       </c>
       <c r="B41" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D41,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D41,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>388</v>
+        <v>548</v>
       </c>
       <c r="C41" s="2" t="str">
         <f ca="1">VLOOKUP(D41,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Great Britain</v>
       </c>
       <c r="D41" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22965</v>
+      <c r="A42" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>19944</v>
       </c>
       <c r="B42" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D42,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D42,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>601</v>
+        <v>2</v>
       </c>
       <c r="C42" s="2" t="str">
         <f ca="1">VLOOKUP(D42,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1251,53 +1251,53 @@
       </c>
       <c r="D42" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>40013</v>
+      <c r="A43" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20625</v>
       </c>
       <c r="B43" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D43,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D43,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="str">
         <f ca="1">VLOOKUP(D43,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Great Britain</v>
       </c>
       <c r="D43" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>34657</v>
+      <c r="A44" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36259</v>
       </c>
       <c r="B44" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D44,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D44,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>433</v>
       </c>
       <c r="C44" s="2" t="str">
         <f ca="1">VLOOKUP(D44,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Egypt</v>
       </c>
       <c r="D44" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22812</v>
+      <c r="A45" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28212</v>
       </c>
       <c r="B45" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D45,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D45,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>423</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2" t="str">
         <f ca="1">VLOOKUP(D45,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D45" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>19532</v>
+      <c r="A46" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39588</v>
       </c>
       <c r="B46" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D46,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D46,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>977</v>
+        <v>892</v>
       </c>
       <c r="C46" s="2" t="str">
         <f ca="1">VLOOKUP(D46,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1327,35 +1327,35 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>18510</v>
+      <c r="A47" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26792</v>
       </c>
       <c r="B47" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D47,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D47,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="str">
         <f ca="1">VLOOKUP(D47,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Germany</v>
       </c>
       <c r="D47" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24235</v>
+      <c r="A48" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20059</v>
       </c>
       <c r="B48" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D48,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D48,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2" t="str">
         <f ca="1">VLOOKUP(D48,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Algeria</v>
       </c>
       <c r="D48" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1363,31 +1363,31 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>25276</v>
+      <c r="A49" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25624</v>
       </c>
       <c r="B49" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D49,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D49,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="str">
         <f ca="1">VLOOKUP(D49,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Great Britain</v>
       </c>
       <c r="D49" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>28855</v>
+      <c r="A50" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25224</v>
       </c>
       <c r="B50" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D50,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D50,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="C50" s="2" t="str">
         <f ca="1">VLOOKUP(D50,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1399,175 +1399,175 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22227</v>
+      <c r="A51" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>33015</v>
       </c>
       <c r="B51" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D51,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D51,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="C51" s="2" t="str">
         <f ca="1">VLOOKUP(D51,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>USA</v>
       </c>
       <c r="D51" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>34067</v>
+      <c r="A52" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21158</v>
       </c>
       <c r="B52" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D52,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D52,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="str">
         <f ca="1">VLOOKUP(D52,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Great Britain</v>
       </c>
       <c r="D52" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>37219</v>
+      <c r="A53" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>39326</v>
       </c>
       <c r="B53" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D53,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D53,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="str">
         <f ca="1">VLOOKUP(D53,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>Iceland</v>
       </c>
       <c r="D53" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>34759</v>
+      <c r="A54" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>38425</v>
       </c>
       <c r="B54" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D54,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D54,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>326</v>
+        <v>7</v>
       </c>
       <c r="C54" s="2" t="str">
         <f ca="1">VLOOKUP(D54,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Tunisia</v>
+        <v>Mexico</v>
       </c>
       <c r="D54" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24386</v>
+      <c r="A55" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26357</v>
       </c>
       <c r="B55" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D55,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D55,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="str">
         <f ca="1">VLOOKUP(D55,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Germany</v>
       </c>
       <c r="D55" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>35148</v>
+      <c r="A56" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>23310</v>
       </c>
       <c r="B56" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D56,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D56,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2" t="str">
         <f ca="1">VLOOKUP(D56,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Algeria</v>
       </c>
       <c r="D56" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>28226</v>
+      <c r="A57" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24104</v>
       </c>
       <c r="B57" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D57,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D57,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2" t="str">
         <f ca="1">VLOOKUP(D57,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Great Britain</v>
       </c>
       <c r="D57" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>19698</v>
+      <c r="A58" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28201</v>
       </c>
       <c r="B58" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D58,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D58,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>949</v>
+        <v>308</v>
       </c>
       <c r="C58" s="2" t="str">
         <f ca="1">VLOOKUP(D58,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Algeria</v>
       </c>
       <c r="D58" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>27191</v>
+      <c r="A59" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32692</v>
       </c>
       <c r="B59" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D59,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D59,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2" t="str">
         <f ca="1">VLOOKUP(D59,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Great Britain</v>
       </c>
       <c r="D59" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>27667</v>
+      <c r="A60" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28101</v>
       </c>
       <c r="B60" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D60,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D60,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2" t="str">
         <f ca="1">VLOOKUP(D60,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1579,17 +1579,17 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>36337</v>
+      <c r="A61" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35216</v>
       </c>
       <c r="B61" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D61,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D61,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" s="2" t="str">
         <f ca="1">VLOOKUP(D61,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Mexico</v>
       </c>
       <c r="D61" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1597,13 +1597,13 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29043</v>
+      <c r="A62" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>20975</v>
       </c>
       <c r="B62" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D62,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D62,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="C62" s="2" t="str">
         <f ca="1">VLOOKUP(D62,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1615,35 +1615,35 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22242</v>
+      <c r="A63" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>37074</v>
       </c>
       <c r="B63" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D63,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D63,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C63" s="2" t="str">
         <f ca="1">VLOOKUP(D63,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Mexico</v>
+        <v>Great Britain</v>
       </c>
       <c r="D63" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>18538</v>
+      <c r="A64" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25449</v>
       </c>
       <c r="B64" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D64,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D64,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>378</v>
+        <v>481</v>
       </c>
       <c r="C64" s="2" t="str">
         <f ca="1">VLOOKUP(D64,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Morocco</v>
       </c>
       <c r="D64" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1651,125 +1651,125 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>35351</v>
+      <c r="A65" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>30141</v>
       </c>
       <c r="B65" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D65,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D65,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>561</v>
+        <v>450</v>
       </c>
       <c r="C65" s="2" t="str">
         <f ca="1">VLOOKUP(D65,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Morocco</v>
       </c>
       <c r="D65" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24905</v>
+      <c r="A66" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31056</v>
       </c>
       <c r="B66" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D66,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D66,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C66" s="2" t="str">
         <f ca="1">VLOOKUP(D66,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Greenland</v>
       </c>
       <c r="D66" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>23583</v>
+      <c r="A67" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>38057</v>
       </c>
       <c r="B67" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D67,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D67,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>782</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="str">
         <f ca="1">VLOOKUP(D67,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Iceland</v>
       </c>
       <c r="D67" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22752</v>
+      <c r="A68" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31917</v>
       </c>
       <c r="B68" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D68,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D68,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C68" s="2" t="str">
         <f ca="1">VLOOKUP(D68,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Canada</v>
       </c>
       <c r="D68" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>39220</v>
+      <c r="A69" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31674</v>
       </c>
       <c r="B69" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D69,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D69,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>554</v>
       </c>
       <c r="C69" s="2" t="str">
         <f ca="1">VLOOKUP(D69,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Germany</v>
       </c>
       <c r="D69" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>35969</v>
+      <c r="A70" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31839</v>
       </c>
       <c r="B70" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D70,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D70,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>17</v>
+        <v>964</v>
       </c>
       <c r="C70" s="2" t="str">
         <f ca="1">VLOOKUP(D70,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Great Britain</v>
       </c>
       <c r="D70" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>26079</v>
+      <c r="A71" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>33849</v>
       </c>
       <c r="B71" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D71,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D71,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C71" s="2" t="str">
         <f ca="1">VLOOKUP(D71,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>USA</v>
+        <v>Greenland</v>
       </c>
       <c r="D71" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1777,67 +1777,67 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>27391</v>
+      <c r="A72" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>33516</v>
       </c>
       <c r="B72" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D72,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D72,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C72" s="2" t="str">
         <f ca="1">VLOOKUP(D72,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>USA</v>
       </c>
       <c r="D72" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24210</v>
+      <c r="A73" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32511</v>
       </c>
       <c r="B73" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D73,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D73,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="str">
         <f ca="1">VLOOKUP(D73,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>Poland</v>
       </c>
       <c r="D73" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>31316</v>
+      <c r="A74" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26628</v>
       </c>
       <c r="B74" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D74,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D74,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="str">
         <f ca="1">VLOOKUP(D74,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Iceland</v>
       </c>
       <c r="D74" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>37782</v>
+      <c r="A75" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22242</v>
       </c>
       <c r="B75" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D75,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D75,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" s="2" t="str">
         <f ca="1">VLOOKUP(D75,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -1849,9 +1849,9 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>35290</v>
+      <c r="A76" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28930</v>
       </c>
       <c r="B76" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D76,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D76,Data!$B$2:$D$6,3,FALSE))</f>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="C76" s="2" t="str">
         <f ca="1">VLOOKUP(D76,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Greenland</v>
       </c>
       <c r="D76" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -1867,153 +1867,153 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20345</v>
+      <c r="A77" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>22636</v>
       </c>
       <c r="B77" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D77,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D77,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>784</v>
+        <v>20</v>
       </c>
       <c r="C77" s="2" t="str">
         <f ca="1">VLOOKUP(D77,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Netherlands</v>
       </c>
       <c r="D77" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29804</v>
+      <c r="A78" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32419</v>
       </c>
       <c r="B78" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D78,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D78,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2" t="str">
         <f ca="1">VLOOKUP(D78,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Poland</v>
       </c>
       <c r="D78" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>23336</v>
+      <c r="A79" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>35571</v>
       </c>
       <c r="B79" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D79,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D79,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>475</v>
+        <v>17</v>
       </c>
       <c r="C79" s="2" t="str">
         <f ca="1">VLOOKUP(D79,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Morocco</v>
+        <v>Netherlands</v>
       </c>
       <c r="D79" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>33617</v>
+      <c r="A80" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32983</v>
       </c>
       <c r="B80" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D80,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D80,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>7</v>
+        <v>833</v>
       </c>
       <c r="C80" s="2" t="str">
         <f ca="1">VLOOKUP(D80,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Canada</v>
+        <v>Poland</v>
       </c>
       <c r="D80" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>31096</v>
+      <c r="A81" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>21886</v>
       </c>
       <c r="B81" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D81,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D81,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>4</v>
+        <v>387</v>
       </c>
       <c r="C81" s="2" t="str">
         <f ca="1">VLOOKUP(D81,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Poland</v>
       </c>
       <c r="D81" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>36026</v>
+      <c r="A82" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18931</v>
       </c>
       <c r="B82" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D82,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D82,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2" t="str">
         <f ca="1">VLOOKUP(D82,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>Poland</v>
       </c>
       <c r="D82" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Eagle</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29113</v>
+      <c r="A83" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>31006</v>
       </c>
       <c r="B83" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D83,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D83,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C83" s="2" t="str">
         <f ca="1">VLOOKUP(D83,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Mexico</v>
       </c>
       <c r="D83" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>20236</v>
+      <c r="A84" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36105</v>
       </c>
       <c r="B84" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D84,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D84,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2" t="str">
         <f ca="1">VLOOKUP(D84,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Algeria</v>
+        <v>Great Britain</v>
       </c>
       <c r="D84" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29626</v>
+      <c r="A85" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>19258</v>
       </c>
       <c r="B85" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D85,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D85,Data!$B$2:$D$6,3,FALSE))</f>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="C85" s="2" t="str">
         <f ca="1">VLOOKUP(D85,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Great Britain</v>
       </c>
       <c r="D85" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -2029,35 +2029,35 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>29625</v>
+      <c r="A86" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>23391</v>
       </c>
       <c r="B86" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D86,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D86,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="C86" s="2" t="str">
         <f ca="1">VLOOKUP(D86,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Poland</v>
       </c>
       <c r="D86" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>32799</v>
+      <c r="A87" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>36877</v>
       </c>
       <c r="B87" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D87,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D87,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C87" s="2" t="str">
         <f ca="1">VLOOKUP(D87,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Greenland</v>
+        <v>USA</v>
       </c>
       <c r="D87" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
@@ -2065,67 +2065,67 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>24138</v>
+      <c r="A88" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>28816</v>
       </c>
       <c r="B88" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D88,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D88,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C88" s="2" t="str">
         <f ca="1">VLOOKUP(D88,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>USA</v>
       </c>
       <c r="D88" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>36500</v>
+      <c r="A89" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>30131</v>
       </c>
       <c r="B89" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D89,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D89,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="C89" s="2" t="str">
         <f ca="1">VLOOKUP(D89,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Egypt</v>
+        <v>Canada</v>
       </c>
       <c r="D89" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Kamel</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>39009</v>
+      <c r="A90" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>30617</v>
       </c>
       <c r="B90" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D90,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D90,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>526</v>
+        <v>7</v>
       </c>
       <c r="C90" s="2" t="str">
         <f ca="1">VLOOKUP(D90,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Mexico</v>
       </c>
       <c r="D90" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22195</v>
+      <c r="A91" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>29035</v>
       </c>
       <c r="B91" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D91,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D91,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>763</v>
+        <v>454</v>
       </c>
       <c r="C91" s="2" t="str">
         <f ca="1">VLOOKUP(D91,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2137,13 +2137,13 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>37651</v>
+      <c r="A92" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24311</v>
       </c>
       <c r="B92" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D92,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D92,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="2" t="str">
         <f ca="1">VLOOKUP(D92,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2155,85 +2155,85 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>25503</v>
+      <c r="A93" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34043</v>
       </c>
       <c r="B93" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D93,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D93,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C93" s="2" t="str">
         <f ca="1">VLOOKUP(D93,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Great Britain</v>
+        <v>Canada</v>
       </c>
       <c r="D93" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>21531</v>
+      <c r="A94" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>32546</v>
       </c>
       <c r="B94" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D94,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D94,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C94" s="2" t="str">
         <f ca="1">VLOOKUP(D94,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Iceland</v>
+        <v>Poland</v>
       </c>
       <c r="D94" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Rabbit</v>
+        <v>Dog</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>37784</v>
+      <c r="A95" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>30118</v>
       </c>
       <c r="B95" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D95,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D95,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="C95" s="2" t="str">
         <f ca="1">VLOOKUP(D95,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Germany</v>
       </c>
       <c r="D95" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>37090</v>
+      <c r="A96" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24917</v>
       </c>
       <c r="B96" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D96,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D96,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>412</v>
+        <v>494</v>
       </c>
       <c r="C96" s="2" t="str">
         <f ca="1">VLOOKUP(D96,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>Tunisia</v>
       </c>
       <c r="D96" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Kamel</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>38521</v>
+      <c r="A97" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>26256</v>
       </c>
       <c r="B97" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D97,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D97,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C97" s="2" t="str">
         <f ca="1">VLOOKUP(D97,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2245,13 +2245,13 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>22680</v>
+      <c r="A98" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>34684</v>
       </c>
       <c r="B98" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D98,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D98,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="C98" s="2" t="str">
         <f ca="1">VLOOKUP(D98,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2259,31 +2259,31 @@
       </c>
       <c r="D98" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Horse</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>39288</v>
+      <c r="A99" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>25992</v>
       </c>
       <c r="B99" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D99,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D99,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C99" s="2" t="str">
         <f ca="1">VLOOKUP(D99,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Netherlands</v>
+        <v>Great Britain</v>
       </c>
       <c r="D99" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>25871</v>
+      <c r="A100" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>18782</v>
       </c>
       <c r="B100" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D100,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D100,Data!$B$2:$D$6,3,FALSE))</f>
@@ -2291,39 +2291,39 @@
       </c>
       <c r="C100" s="2" t="str">
         <f ca="1">VLOOKUP(D100,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Germany</v>
+        <v>USA</v>
       </c>
       <c r="D100" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Dog</v>
+        <v>Eagle</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>31490</v>
+      <c r="A101" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>23172</v>
       </c>
       <c r="B101" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D101,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D101,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>962</v>
+        <v>4</v>
       </c>
       <c r="C101" s="2" t="str">
         <f ca="1">VLOOKUP(D101,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
-        <v>Poland</v>
+        <v>Germany</v>
       </c>
       <c r="D101" s="4" t="str">
         <f ca="1">INDEX(Data!$B$2:$B$6,RANDBETWEEN(1,5))</f>
-        <v>Horse</v>
+        <v>Rabbit</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
-        <v>32917</v>
+      <c r="A102" s="7">
+        <f ca="1">RANDBETWEEN(Data!$A$2,Data!$A$3)</f>
+        <v>24808</v>
       </c>
       <c r="B102" s="5">
         <f ca="1">RANDBETWEEN(VLOOKUP(D102,Data!$B$2:$D$6,2,FALSE),VLOOKUP(D102,Data!$B$2:$D$6,3,FALSE))</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C102" s="2" t="str">
         <f ca="1">VLOOKUP(D102,Data!$B$2:$H$6,RANDBETWEEN(4,7),FALSE)</f>
@@ -2344,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDD2B13-87EF-4487-ABE6-725EFD1DA11D}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2367,16 +2367,16 @@
       <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>18264</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -2405,7 +2405,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>40543</v>
       </c>
       <c r="B3" s="4" t="s">
